--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{7E9FB2E0-F9FC-490A-937A-5891AE916D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{F766FEA1-E574-4661-9109-7DCF2EAA6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-700" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>Lista los nombres y precios de todos los productos de la tabla "producto", truncando el valor del precio para mostrarlo sin ninguna cifra decimal.</t>
   </si>
   <si>
-    <t>Lista el código de los fabricantes que tienen productos en la mesa "producto".</t>
-  </si>
-  <si>
-    <t>Lista el código de los fabricantes que tienen productos en la mesa "producto", eliminando los códigos que aparecen repetidos.</t>
-  </si>
-  <si>
     <t>Lista los nombres de los fabricantes ordenados de forma ascendente.</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>Lista los nombres y precios de todos los productos de la tabla "producto", redondeando el valor del precio.</t>
+  </si>
+  <si>
+    <t>Lista el código de los fabricantes que tienen productos en la tabla "producto".</t>
+  </si>
+  <si>
+    <t>Lista el código de los fabricantes que tienen productos en la tabla "producto", eliminando los códigos que aparecen repetidos.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,10 +581,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -736,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -745,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -781,7 +781,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -817,7 +817,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -898,7 +898,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -916,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{F766FEA1-E574-4661-9109-7DCF2EAA6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A45443-94AC-48AA-8570-BCF435122360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-700" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-19310" yWindow="-700" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicios" sheetId="1" r:id="rId1"/>
@@ -74,12 +74,6 @@
     <t>Lista los nombres de los productos ordenados, en primer lugar, por el nombre de forma ascendente y, en segundo lugar, por el precio de forma descendente.</t>
   </si>
   <si>
-    <t>Devuelve una lista con las 5 primeras filas de la mesa "fabricante".</t>
-  </si>
-  <si>
-    <t>Devuelve una lista con 2 filas a partir de la cuarta fila de la mesa "fabricante". La cuarta fila también debe incluirse en la respuesta.</t>
-  </si>
-  <si>
     <t>Lista el nombre y precio del producto más barato. (Utiliza solo las cláusulas ORDER BY y LIMIT). NOTA: Aquí no podrías usar MIN(precio), necesitarías GROUP BY</t>
   </si>
   <si>
@@ -165,12 +159,18 @@
   </si>
   <si>
     <t>Lista el código de los fabricantes que tienen productos en la tabla "producto", eliminando los códigos que aparecen repetidos.</t>
+  </si>
+  <si>
+    <t>Devuelve una lista con las 5 primeras filas de la tabla "fabricante".</t>
+  </si>
+  <si>
+    <t>Devuelve una lista con 2 filas a partir de la cuarta fila de la tabla "fabricante". La cuarta fila también debe incluirse en la respuesta.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,26 +565,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="141.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -677,120 +677,120 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -817,7 +817,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="31" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -898,7 +898,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -916,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A45443-94AC-48AA-8570-BCF435122360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6F87A-FC3C-4F57-A6C9-4BD85261FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-700" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicios" sheetId="1" r:id="rId1"/>
+    <sheet name="producto" sheetId="2" r:id="rId2"/>
+    <sheet name="fabricante" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">producto!$A$1:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Lista el nombre de todos los productos que hay en la mesa "producto".</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Lista los nombres y precios de todos los productos de la tabla "producto".</t>
   </si>
@@ -165,13 +167,100 @@
   </si>
   <si>
     <t>Devuelve una lista con 2 filas a partir de la cuarta fila de la tabla "fabricante". La cuarta fila también debe incluirse en la respuesta.</t>
+  </si>
+  <si>
+    <t>Disco duro SATA3 1TB</t>
+  </si>
+  <si>
+    <t>86.99</t>
+  </si>
+  <si>
+    <t>Memoria RAM DDR4 8GB</t>
+  </si>
+  <si>
+    <t>Disco SSD 1 TB</t>
+  </si>
+  <si>
+    <t>150.99</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1050Ti</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080 Xtreme</t>
+  </si>
+  <si>
+    <t>Monitor 24 LED Full HD</t>
+  </si>
+  <si>
+    <t>Monitor 27 LED Full HD</t>
+  </si>
+  <si>
+    <t>245.99</t>
+  </si>
+  <si>
+    <t>Portátil Yoga 520</t>
+  </si>
+  <si>
+    <t>Portátil Ideapd 320</t>
+  </si>
+  <si>
+    <t>Impresora HP Deskjet 3720</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>Impresora HP Laserjet Pro M26nw</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>codigo_fabricante</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Lista el nombre de todos los productos que hay en la tabla "producto".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +282,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +301,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,19 +346,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,8 +688,8 @@
   <dimension ref="B1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,383 +699,675 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B42" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
+    <row r="6" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
+        <f>B38+1</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="8">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C40" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C41" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <f t="shared" si="0"/>
+      <c r="C42" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4872AA-3C90-4684-AD94-A8EBCEC2EABB}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6">
+        <v>185</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <v>755</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6">
+        <v>202</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6">
+        <v>559</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6">
+        <v>444</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6">
+        <v>180</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D12" xr:uid="{3C4872AA-3C90-4684-AD94-A8EBCEC2EABB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA71EEE3-1006-4E0D-B641-075109F43047}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6F87A-FC3C-4F57-A6C9-4BD85261FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D1275-F109-460F-86A7-38FAE237A6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="564" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicios" sheetId="1" r:id="rId1"/>
+    <sheet name="Tienda" sheetId="1" r:id="rId1"/>
     <sheet name="producto" sheetId="2" r:id="rId2"/>
     <sheet name="fabricante" sheetId="3" r:id="rId3"/>
+    <sheet name="Universidad" sheetId="4" r:id="rId4"/>
+    <sheet name="alumno_se_matricula_asignatura" sheetId="5" r:id="rId5"/>
+    <sheet name="asignatura" sheetId="6" r:id="rId6"/>
+    <sheet name="curso_escolar" sheetId="7" r:id="rId7"/>
+    <sheet name="departamento" sheetId="8" r:id="rId8"/>
+    <sheet name="grado" sheetId="9" r:id="rId9"/>
+    <sheet name="persona" sheetId="10" r:id="rId10"/>
+    <sheet name="profesor" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">producto!$A$1:$D$12</definedName>
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Lista los nombres y precios de todos los productos de la tabla "producto".</t>
   </si>
@@ -254,13 +262,99 @@
   </si>
   <si>
     <t>Lista el nombre de todos los productos que hay en la tabla "producto".</t>
+  </si>
+  <si>
+    <t>1. Retorna un llistat amb el primer cognom, segon cognom i el nom de tots els/les alumnes. El llistat haurà d'estar ordenat alfabèticament de menor a major pel primer cognom, segon cognom i nom.</t>
+  </si>
+  <si>
+    <t>3. Retorna el llistat dels/les alumnes que van néixer en 1999.</t>
+  </si>
+  <si>
+    <t>4. Retorna el llistat de professors/es que no han donat d'alta el seu número de telèfon en la base de dades i a més el seu NIF acaba en K.</t>
+  </si>
+  <si>
+    <t>5. Retorna el llistat de les assignatures que s'imparteixen en el primer quadrimestre, en el tercer curs del grau que té l'identificador 7.</t>
+  </si>
+  <si>
+    <t>9. Retorna un llistat amb tots els/les alumnes que s'han matriculat en alguna assignatura durant el curs escolar 2018/2019.</t>
+  </si>
+  <si>
+    <t>Resol les 6 següents consultes utilitzant les clàusules LEFT JOIN i RIGHT JOIN.</t>
+  </si>
+  <si>
+    <t>1.  Retorna un llistat amb els noms de tots els professors/es i els departaments que tenen vinculats/des. El llistat també ha de mostrar aquells professors/es que no tenen cap departament associat. El llistat ha de retornar quatre columnes, nom del departament, primer cognom, segon cognom i nom del professor/a. El resultat estarà ordenat alfabèticament de menor a major pel nom del departament, cognoms i el nom.</t>
+  </si>
+  <si>
+    <t>2. Retorna un llistat amb els professors/es que no estan associats a un departament.</t>
+  </si>
+  <si>
+    <t>3. Retorna un llistat amb els departaments que no tenen professors/es associats.</t>
+  </si>
+  <si>
+    <t>4. Retorna un llistat amb els professors/es que no imparteixen cap assignatura.</t>
+  </si>
+  <si>
+    <t>5. Retorna un llistat amb les assignatures que no tenen un professor/a assignat.</t>
+  </si>
+  <si>
+    <t>6. Retorna un llistat amb tots els departaments que no han impartit assignatures en cap curs escolar.</t>
+  </si>
+  <si>
+    <t>Consultes resum:</t>
+  </si>
+  <si>
+    <t>1. Retorna el nombre total d'alumnes que hi ha.</t>
+  </si>
+  <si>
+    <t>2. Calcula quants/es alumnes van néixer en 1999.</t>
+  </si>
+  <si>
+    <t>3. Calcula quants/es professors/es hi ha en cada departament. El resultat només ha de mostrar dues columnes, una amb el nom del departament i una altra amb el nombre de professors/es que hi ha en aquest departament. El resultat només ha d'incloure els departaments que tenen professors/es associats i haurà d'estar ordenat de major a menor pel nombre de professors/es.</t>
+  </si>
+  <si>
+    <t>4. Retorna un llistat amb tots els departaments i el nombre de professors/es que hi ha en cadascun d'ells. Té en compte que poden existir departaments que no tenen professors/es associats/des. Aquests departaments també han d'aparèixer en el llistat.</t>
+  </si>
+  <si>
+    <t>5. Retorna un llistat amb el nom de tots els graus existents en la base de dades i el nombre d'assignatures que té cadascun. Té en compte que poden existir graus que no tenen assignatures associades. Aquests graus també han d'aparèixer en el llistat. El resultat haurà d'estar ordenat de major a menor pel nombre d'assignatures.</t>
+  </si>
+  <si>
+    <t>6. Retorna un llistat amb el nom de tots els graus existents en la base de dades i el nombre d'assignatures que té cadascun, dels graus que tinguin més de 40 assignatures associades.</t>
+  </si>
+  <si>
+    <t>7. Retorna un llistat que mostri el nom dels graus i la suma del nombre total de crèdits que hi ha per a cada tipus d'assignatura. El resultat ha de tenir tres columnes: nom del grau, tipus d'assignatura i la suma dels crèdits de totes les assignatures que hi ha d'aquest tipus.</t>
+  </si>
+  <si>
+    <t>8. Retorna un llistat que mostri quants/es alumnes s'han matriculat d'alguna assignatura en cadascun dels cursos escolars. El resultat haurà de mostrar dues columnes, una columna amb l'any d'inici del curs escolar i una altra amb el nombre d'alumnes matriculats/des.</t>
+  </si>
+  <si>
+    <t>9. Retorna un llistat amb el nombre d'assignatures que imparteix cada professor/a. El llistat ha de tenir en compte aquells professors/es que no imparteixen cap assignatura. El resultat mostrarà cinc columnes: id, nom, primer cognom, segon cognom i nombre d'assignatures. El resultat estarà ordenat de major a menor pel nombre d'assignatures.</t>
+  </si>
+  <si>
+    <t>10. Retorna totes les dades de l'alumne més jove.</t>
+  </si>
+  <si>
+    <t>11. Retorna un llistat amb els professors/es que tenen un departament associat i que no imparteixen cap assignatura.</t>
+  </si>
+  <si>
+    <t>Halla el nombre y los dos apellidos de los alumnos que no han dado de alta su número de teléfono en la base de datos.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat dels professors/es juntament amb el nom del departament al qual estan vinculats/des. 
+El llistat ha de retornar quatre columnes, primer cognom, segon cognom, nom i nom del departament. 
+El resultat estarà ordenat alfabèticament de menor a major pels cognoms i el nom.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb el nom de les assignatures, any d'inici i any de fi del curs escolar de l'alumne/a amb NIF 26902806M.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb el nom de tots els departaments que tenen professors/es que imparteixen alguna assignatura en el Grau en Enginyeria Informàtica (Pla 2015).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +380,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,6 +472,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,398 +805,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42:C42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="141.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="141.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A42" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="4">
-        <f>B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:B42" si="0">B3+1</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B38" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <f>A38+1</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B39" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B40" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B41" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
-        <f>B38+1</f>
-        <v>38</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="10">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD659F-EA35-467C-B419-FF376CE605B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C19AC5-F112-4205-A84D-1D30622B7634}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1370,4 +1516,335 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352F9DC3-8699-4E47-BF29-61940CBB7A2D}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="104.7265625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <f>A12+1</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <f t="shared" ref="A14:A17" si="1">A13+1</f>
+        <v>3</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <f>A19+1</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <f t="shared" ref="A21:A29" si="2">A20+1</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC2CCD8-C735-4335-9847-11758075F4AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B8E14E-1DEA-4122-9E07-CDFCFC5B0CF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27302FC0-D1D1-4197-9409-D0DDD97304F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D068D9-3CAA-456E-AF7B-1581F08CA8BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25C70BF-5A5B-49AF-9C74-9219450E7959}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D1275-F109-460F-86A7-38FAE237A6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD5404C-4815-49D0-BF02-C967619AA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="564" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="466" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tienda" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <sheet name="profesor" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">persona!$A$1:$K$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">producto!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">profesor!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="231">
   <si>
     <t>Lista los nombres y precios de todos los productos de la tabla "producto".</t>
   </si>
@@ -282,18 +284,9 @@
     <t>Resol les 6 següents consultes utilitzant les clàusules LEFT JOIN i RIGHT JOIN.</t>
   </si>
   <si>
-    <t>1.  Retorna un llistat amb els noms de tots els professors/es i els departaments que tenen vinculats/des. El llistat també ha de mostrar aquells professors/es que no tenen cap departament associat. El llistat ha de retornar quatre columnes, nom del departament, primer cognom, segon cognom i nom del professor/a. El resultat estarà ordenat alfabèticament de menor a major pel nom del departament, cognoms i el nom.</t>
-  </si>
-  <si>
-    <t>2. Retorna un llistat amb els professors/es que no estan associats a un departament.</t>
-  </si>
-  <si>
     <t>3. Retorna un llistat amb els departaments que no tenen professors/es associats.</t>
   </si>
   <si>
-    <t>4. Retorna un llistat amb els professors/es que no imparteixen cap assignatura.</t>
-  </si>
-  <si>
     <t>5. Retorna un llistat amb les assignatures que no tenen un professor/a assignat.</t>
   </si>
   <si>
@@ -307,18 +300,6 @@
   </si>
   <si>
     <t>2. Calcula quants/es alumnes van néixer en 1999.</t>
-  </si>
-  <si>
-    <t>3. Calcula quants/es professors/es hi ha en cada departament. El resultat només ha de mostrar dues columnes, una amb el nom del departament i una altra amb el nombre de professors/es que hi ha en aquest departament. El resultat només ha d'incloure els departaments que tenen professors/es associats i haurà d'estar ordenat de major a menor pel nombre de professors/es.</t>
-  </si>
-  <si>
-    <t>4. Retorna un llistat amb tots els departaments i el nombre de professors/es que hi ha en cadascun d'ells. Té en compte que poden existir departaments que no tenen professors/es associats/des. Aquests departaments també han d'aparèixer en el llistat.</t>
-  </si>
-  <si>
-    <t>5. Retorna un llistat amb el nom de tots els graus existents en la base de dades i el nombre d'assignatures que té cadascun. Té en compte que poden existir graus que no tenen assignatures associades. Aquests graus també han d'aparèixer en el llistat. El resultat haurà d'estar ordenat de major a menor pel nombre d'assignatures.</t>
-  </si>
-  <si>
-    <t>6. Retorna un llistat amb el nom de tots els graus existents en la base de dades i el nombre d'assignatures que té cadascun, dels graus que tinguin més de 40 assignatures associades.</t>
   </si>
   <si>
     <t>7. Retorna un llistat que mostri el nom dels graus i la suma del nombre total de crèdits que hi ha per a cada tipus d'assignatura. El resultat ha de tenir tres columnes: nom del grau, tipus d'assignatura i la suma dels crèdits de totes les assignatures que hi ha d'aquest tipus.</t>
@@ -348,6 +329,433 @@
   </si>
   <si>
     <t>Retorna un llistat amb el nom de tots els departaments que tenen professors/es que imparteixen alguna assignatura en el Grau en Enginyeria Informàtica (Pla 2015).</t>
+  </si>
+  <si>
+    <t>Retorna un listado con los nombres de todos los profesores/as y los departamentos que tienen vinculados/as. 
+El listado también debe mostrar aquellos profesores/as que no tienen ningún departamento asociado. 
+El listado debe devolver cuatro columnas, nombre del departamento, primer apellido, segundo apellido y nombre del profesor/a. 
+El resultado estará ordenado alfabéticamente de menor a mayor por el nombre del departamento, apellidos y nombre.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb els professors/es que no estan associats a un departament.</t>
+  </si>
+  <si>
+    <t>26902806M</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Almería</t>
+  </si>
+  <si>
+    <t>C/ Real del barrio alto</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>alumno</t>
+  </si>
+  <si>
+    <t>89542419S</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Saez</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>C/ Mercurio</t>
+  </si>
+  <si>
+    <t>11105554G</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Gea</t>
+  </si>
+  <si>
+    <t>C/ Marte</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>17105885A</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Pagac</t>
+  </si>
+  <si>
+    <t>C/ Estrella fugaz</t>
+  </si>
+  <si>
+    <t>38223286T</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>C/ Venus</t>
+  </si>
+  <si>
+    <t>04233869Y</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Koss</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>C/ Júpiter</t>
+  </si>
+  <si>
+    <t>97258166K</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Strosin</t>
+  </si>
+  <si>
+    <t>Turcotte</t>
+  </si>
+  <si>
+    <t>C/ Neptuno</t>
+  </si>
+  <si>
+    <t>79503962T</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Lemke</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>C/ Saturno</t>
+  </si>
+  <si>
+    <t>82842571K</t>
+  </si>
+  <si>
+    <t>Ramón</t>
+  </si>
+  <si>
+    <t>Herzog</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>C/ Urano</t>
+  </si>
+  <si>
+    <t>61142000L</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Lakin</t>
+  </si>
+  <si>
+    <t>C/ Plutón</t>
+  </si>
+  <si>
+    <t>46900725E</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Pacocha</t>
+  </si>
+  <si>
+    <t>C/ Andarax</t>
+  </si>
+  <si>
+    <t>85366986W</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Streich</t>
+  </si>
+  <si>
+    <t>Hirthe</t>
+  </si>
+  <si>
+    <t>C/ Almanzora</t>
+  </si>
+  <si>
+    <t>73571384L</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Stiedemann</t>
+  </si>
+  <si>
+    <t>Morissette</t>
+  </si>
+  <si>
+    <t>C/ Guadalquivir</t>
+  </si>
+  <si>
+    <t>82937751G</t>
+  </si>
+  <si>
+    <t>Manolo</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>Kozey</t>
+  </si>
+  <si>
+    <t>C/ Duero</t>
+  </si>
+  <si>
+    <t>80502866Z</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Kohler</t>
+  </si>
+  <si>
+    <t>Schoen</t>
+  </si>
+  <si>
+    <t>C/ Tajo</t>
+  </si>
+  <si>
+    <t>10485008K</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Fahey</t>
+  </si>
+  <si>
+    <t>Considine</t>
+  </si>
+  <si>
+    <t>C/ Sierra de los Filabres</t>
+  </si>
+  <si>
+    <t>85869555K</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Ruecker</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>C/ Sierra de Gádor</t>
+  </si>
+  <si>
+    <t>04326833G</t>
+  </si>
+  <si>
+    <t>Micaela</t>
+  </si>
+  <si>
+    <t>Monahan</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>C/ Veleta</t>
+  </si>
+  <si>
+    <t>11578526G</t>
+  </si>
+  <si>
+    <t>Inma</t>
+  </si>
+  <si>
+    <t>Yundt</t>
+  </si>
+  <si>
+    <t>C/ Picos de Europa</t>
+  </si>
+  <si>
+    <t>79221403L</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Schowalter</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>C/ Quinto pino</t>
+  </si>
+  <si>
+    <t>79089577Y</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>C/ Los pinos</t>
+  </si>
+  <si>
+    <t>41491230N</t>
+  </si>
+  <si>
+    <t>Domínguez</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>C/ Cabo de Gata</t>
+  </si>
+  <si>
+    <t>64753215G</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>C/ Zapillo</t>
+  </si>
+  <si>
+    <t>85135690V</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nif</t>
+  </si>
+  <si>
+    <t>apellido1</t>
+  </si>
+  <si>
+    <t>apellido2</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>teléfono</t>
+  </si>
+  <si>
+    <t>fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>id_profesor</t>
+  </si>
+  <si>
+    <t>id_departamento</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb els professors/es que no imparteixen cap assignatura.</t>
+  </si>
+  <si>
+    <t>Calcula quants/es professors/es hi ha en cada departament. 
+El resultat només ha de mostrar dues columnes, una amb el nom del departament i una altra amb el nombre de professors/es que hi ha en aquest departament. 
+El resultat només ha d'incloure els departaments que tenen professors/es associats i haurà d'estar ordenat de major a menor pel nombre de professors/es.</t>
+  </si>
+  <si>
+    <t>Devuelve un listado con todos los departamentos y el número de profesores/as que hay en cada uno de ellos.
+Tiene en cuenta que pueden existir departamentos que no tienen profesores/as asociados/as.
+Estos departamentos también deben aparecer en el listado.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb el nom de tots els graus existents en la base de dades i el nombre d'assignatures que té cadascun, dels graus que tinguin més de 40 assignatures associades.</t>
+  </si>
+  <si>
+    <t>Devuelve un listado con el nombre de todos los grados existentes en la base de datos y el número de asignaturas que tiene cada uno. 
+Tiene en cuenta que pueden existir grados que carecen de asignaturas asociadas. 
+Estos grados también deben aparecer en el listado. 
+El resultado deberá estar ordenado de mayor a menor por el número de asignaturas</t>
   </si>
 </sst>
 </file>
@@ -393,7 +801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +823,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -490,6 +904,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,26 +1625,1056 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD659F-EA35-467C-B419-FF376CE605B4}">
-  <dimension ref="A1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="6">
+        <v>950254837</v>
+      </c>
+      <c r="I2" s="20">
+        <v>33325</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="6">
+        <v>618253876</v>
+      </c>
+      <c r="I3" s="20">
+        <v>33824</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="6">
+        <v>618223876</v>
+      </c>
+      <c r="I4" s="20">
+        <v>29086</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="e">
+        <f>VLOOKUP(A4,profesor!$A$2:$A$12,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="20">
+        <v>36804</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="6">
+        <v>678516294</v>
+      </c>
+      <c r="I6" s="20">
+        <v>28509</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(A6,profesor!$A$2:$A$12,1,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="6">
+        <v>628349590</v>
+      </c>
+      <c r="I7" s="20">
+        <v>35823</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="20">
+        <v>36304</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="6">
+        <v>669162534</v>
+      </c>
+      <c r="I9" s="20">
+        <v>28358</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP(A9,profesor!$A$2:$A$12,1,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="6">
+        <v>626351429</v>
+      </c>
+      <c r="I10" s="20">
+        <v>35390</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="20">
+        <v>28264</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(A11,profesor!$A$2:$A$12,1,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="6">
+        <v>679837625</v>
+      </c>
+      <c r="I12" s="20">
+        <v>35546</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="20">
+        <v>26052</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(A13,profesor!$A$2:$A$12,1,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="6">
+        <v>950896725</v>
+      </c>
+      <c r="I14" s="20">
+        <v>29252</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(A14,profesor!$A$2:$A$12,1,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="6">
+        <v>950263514</v>
+      </c>
+      <c r="I15" s="20">
+        <v>28127</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(A15,profesor!$A$2:$A$12,1,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="6">
+        <v>668726354</v>
+      </c>
+      <c r="I16" s="20">
+        <v>29294</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(A16,profesor!$A$2:$A$12,1,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="20">
+        <v>30028</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(A17,profesor!$A$2:$A$12,1,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="20">
+        <v>26789</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(A18,profesor!$A$2:$A$12,1,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="6">
+        <v>662765413</v>
+      </c>
+      <c r="I19" s="20">
+        <v>27815</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(A19,profesor!$A$2:$A$12,1,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="6">
+        <v>678652431</v>
+      </c>
+      <c r="I20" s="20">
+        <v>36039</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="20">
+        <v>29525</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP(A21,profesor!$A$2:$A$12,1,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="6">
+        <v>678652431</v>
+      </c>
+      <c r="I22" s="20">
+        <v>35796</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="6">
+        <v>626652498</v>
+      </c>
+      <c r="I23" s="20">
+        <v>36202</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="6">
+        <v>628452384</v>
+      </c>
+      <c r="I24" s="20">
+        <v>35136</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="6">
+        <v>678812017</v>
+      </c>
+      <c r="I25" s="20">
+        <v>34802</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K25" xr:uid="{E5DD659F-EA35-467C-B419-FF376CE605B4}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="profesor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C19AC5-F112-4205-A84D-1D30622B7634}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{75C19AC5-F112-4205-A84D-1D30622B7634}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1523,14 +2976,14 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="104.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="145.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1555,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1592,7 +3045,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -1601,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -1610,15 +3063,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1627,115 +3080,115 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+    <row r="12" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>77</v>
+      <c r="B12" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="18">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
+      <c r="B13" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="17">
         <f t="shared" ref="A14:A17" si="1">A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>79</v>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>80</v>
+      <c r="B15" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>81</v>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>82</v>
+      <c r="B17" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>84</v>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="17">
         <f>A19+1</f>
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>85</v>
+      <c r="B20" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="17">
         <f t="shared" ref="A21:A29" si="2">A20+1</f>
         <v>3</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>86</v>
+      <c r="B21" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="B22" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>88</v>
+      <c r="B23" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="A24" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>89</v>
+      <c r="B24" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -1744,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -1753,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -1762,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1771,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -1780,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2Tema1Ejercicios.xlsx
+++ b/Sprint2Tema1Ejercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\02 PHP FULL STACK\Sprint 2\Sprint2Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD5404C-4815-49D0-BF02-C967619AA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B0C7BB-5CCD-4B2C-8D56-5C9C438BB0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="466" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,21 +302,6 @@
     <t>2. Calcula quants/es alumnes van néixer en 1999.</t>
   </si>
   <si>
-    <t>7. Retorna un llistat que mostri el nom dels graus i la suma del nombre total de crèdits que hi ha per a cada tipus d'assignatura. El resultat ha de tenir tres columnes: nom del grau, tipus d'assignatura i la suma dels crèdits de totes les assignatures que hi ha d'aquest tipus.</t>
-  </si>
-  <si>
-    <t>8. Retorna un llistat que mostri quants/es alumnes s'han matriculat d'alguna assignatura en cadascun dels cursos escolars. El resultat haurà de mostrar dues columnes, una columna amb l'any d'inici del curs escolar i una altra amb el nombre d'alumnes matriculats/des.</t>
-  </si>
-  <si>
-    <t>9. Retorna un llistat amb el nombre d'assignatures que imparteix cada professor/a. El llistat ha de tenir en compte aquells professors/es que no imparteixen cap assignatura. El resultat mostrarà cinc columnes: id, nom, primer cognom, segon cognom i nombre d'assignatures. El resultat estarà ordenat de major a menor pel nombre d'assignatures.</t>
-  </si>
-  <si>
-    <t>10. Retorna totes les dades de l'alumne més jove.</t>
-  </si>
-  <si>
-    <t>11. Retorna un llistat amb els professors/es que tenen un departament associat i que no imparteixen cap assignatura.</t>
-  </si>
-  <si>
     <t>Halla el nombre y los dos apellidos de los alumnos que no han dado de alta su número de teléfono en la base de datos.</t>
   </si>
   <si>
@@ -756,6 +741,25 @@
 Tiene en cuenta que pueden existir grados que carecen de asignaturas asociadas. 
 Estos grados también deben aparecer en el listado. 
 El resultado deberá estar ordenado de mayor a menor por el número de asignaturas</t>
+  </si>
+  <si>
+    <t>Devuelve un listado que muestre el nombre de los grados y 
+la suma del número total de créditos existentes para cada tipo de asignatura. 
+El resultado debe tener tres columnas: nombre del grado, tipo de asignatura y la suma de los créditos de todas las asignaturas que existen de este tipo.</t>
+  </si>
+  <si>
+    <t>Devuelve un listado con el número de asignaturas que imparte cada profesor/a. El listado debe tener en cuenta a aquellos profesores/as que no imparten ninguna asignatura. El resultado mostrará cinco columnas: id, nombre, primer apellido, segundo apellido y número de asignaturas. El resultado estará ordenado de mayor a menor por el número de asignaturas.</t>
+  </si>
+  <si>
+    <t>Devuelve un listado que muestre cuántos/as alumnos/as se han matriculado de alguna asignatura en cada uno de los cursos escolares. 
+El resultado deberá mostrar dos columnas, una columna con el año de inicio del curso escolar 
+y otra con el número de alumnos/as matriculados/as.</t>
+  </si>
+  <si>
+    <t>Retorna totes les dades de l'alumne més jove.</t>
+  </si>
+  <si>
+    <t>Retorna un llistat amb els professors/es que tenen un departament associat i que no imparteixen cap assignatura.</t>
   </si>
 </sst>
 </file>
@@ -1639,37 +1643,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -1677,22 +1681,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H2" s="6">
         <v>950254837</v>
@@ -1701,10 +1705,10 @@
         <v>33325</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -1712,22 +1716,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H3" s="6">
         <v>618253876</v>
@@ -1736,10 +1740,10 @@
         <v>33824</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1747,22 +1751,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H4" s="6">
         <v>618223876</v>
@@ -1771,10 +1775,10 @@
         <v>29086</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L4" t="e">
         <f>VLOOKUP(A4,profesor!$A$2:$A$12,1,0)</f>
@@ -1786,32 +1790,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="20">
         <v>36804</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1819,22 +1823,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H6" s="6">
         <v>678516294</v>
@@ -1843,10 +1847,10 @@
         <v>28509</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L6">
         <f>VLOOKUP(A6,profesor!$A$2:$A$12,1,0)</f>
@@ -1858,22 +1862,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H7" s="6">
         <v>628349590</v>
@@ -1882,10 +1886,10 @@
         <v>35823</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -1893,32 +1897,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="20">
         <v>36304</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1926,22 +1930,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H9" s="6">
         <v>669162534</v>
@@ -1950,10 +1954,10 @@
         <v>28358</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L9">
         <f>VLOOKUP(A9,profesor!$A$2:$A$12,1,0)</f>
@@ -1965,22 +1969,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H10" s="6">
         <v>626351429</v>
@@ -1989,10 +1993,10 @@
         <v>35390</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2000,32 +2004,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="20">
         <v>28264</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L11">
         <f>VLOOKUP(A11,profesor!$A$2:$A$12,1,0)</f>
@@ -2037,22 +2041,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H12" s="6">
         <v>679837625</v>
@@ -2061,10 +2065,10 @@
         <v>35546</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2072,32 +2076,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="20">
         <v>26052</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L13">
         <f>VLOOKUP(A13,profesor!$A$2:$A$12,1,0)</f>
@@ -2109,22 +2113,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H14" s="6">
         <v>950896725</v>
@@ -2133,10 +2137,10 @@
         <v>29252</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L14">
         <f>VLOOKUP(A14,profesor!$A$2:$A$12,1,0)</f>
@@ -2148,22 +2152,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H15" s="6">
         <v>950263514</v>
@@ -2172,10 +2176,10 @@
         <v>28127</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L15">
         <f>VLOOKUP(A15,profesor!$A$2:$A$12,1,0)</f>
@@ -2187,22 +2191,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H16" s="6">
         <v>668726354</v>
@@ -2211,10 +2215,10 @@
         <v>29294</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L16">
         <f>VLOOKUP(A16,profesor!$A$2:$A$12,1,0)</f>
@@ -2226,32 +2230,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="20">
         <v>30028</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L17">
         <f>VLOOKUP(A17,profesor!$A$2:$A$12,1,0)</f>
@@ -2263,32 +2267,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="20">
         <v>26789</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L18">
         <f>VLOOKUP(A18,profesor!$A$2:$A$12,1,0)</f>
@@ -2300,22 +2304,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H19" s="6">
         <v>662765413</v>
@@ -2324,10 +2328,10 @@
         <v>27815</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L19">
         <f>VLOOKUP(A19,profesor!$A$2:$A$12,1,0)</f>
@@ -2339,22 +2343,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H20" s="6">
         <v>678652431</v>
@@ -2363,10 +2367,10 @@
         <v>36039</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2374,32 +2378,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="20">
         <v>29525</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L21">
         <f>VLOOKUP(A21,profesor!$A$2:$A$12,1,0)</f>
@@ -2411,22 +2415,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H22" s="6">
         <v>678652431</v>
@@ -2435,10 +2439,10 @@
         <v>35796</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -2446,22 +2450,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H23" s="6">
         <v>626652498</v>
@@ -2470,10 +2474,10 @@
         <v>36202</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2481,22 +2485,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H24" s="6">
         <v>628452384</v>
@@ -2505,10 +2509,10 @@
         <v>35136</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2516,22 +2520,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H25" s="6">
         <v>678812017</v>
@@ -2540,10 +2544,10 @@
         <v>34802</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2575,10 +2579,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2976,8 +2980,8 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3002,13 +3006,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -3021,7 +3025,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3030,7 +3034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3045,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3054,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3063,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3080,12 +3084,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -3094,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -3112,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -3161,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -3170,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -3179,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -3188,52 +3192,52 @@
         <v>6</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="A25" s="17">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>83</v>
+      <c r="B25" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="A26" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
+      <c r="B26" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>85</v>
+      <c r="B27" s="19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+      <c r="A28" s="18">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B28" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
